--- a/medicine/Enfance/Grand_prix_des_jeunes_lecteurs/Grand_prix_des_jeunes_lecteurs.xlsx
+++ b/medicine/Enfance/Grand_prix_des_jeunes_lecteurs/Grand_prix_des_jeunes_lecteurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand prix des jeunes lecteurs est un prix littéraire créé en 1985 par la PEEP, l'une des deux grandes fédérations de parents d'élèves. Le jury est composé de 25 élèves de 9 à 12 ans issus des CM2 et 6e de 600 classes participantes. Ils choisissent parmi une sélection de 10 ouvrages préalablement sélectionnés par un comité de lecture.
 Il a été créé pour favoriser la lecture chez les jeunes et est parrainé par le ministère de l'Éducation nationale.
-Depuis 2019, le prix récompense deux catégories d'âge : d'une part les CM1,CM2 et 6e, d'autre part les 5e, 4e et 3e[1].
+Depuis 2019, le prix récompense deux catégories d'âge : d'une part les CM1,CM2 et 6e, d'autre part les 5e, 4e et 3e.
 Depuis la 40eme édition (2023/2024) le concours s'est ouvert à une nouvelle catégorie pour les élèves de seconde et première.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2022 :
 Catégorie CM1, CM2, 6e: La carte des confins de Marie Reppelin (Pocket Jeunesse)
@@ -530,10 +544,10 @@
 Catégorie 5e, 4e, 3e : L'espoir sous nos semelles d'Aurore Gomez (Magnard Jeunesse)
 2018 : Anne-Laure Bondoux pour L'aube sera grandiose (Gallimard Jeunesse)
 2017 : Flore Vesco pour Louis Pasteur contre les loups-garous (Didier Jeunesse)
-2016 : Christel Mouchard pour L'Apache aux yeux bleus[2]
-2015 : Guillaume Prévost pour Force noire[3]
-2014 : Daniel Pennac pour Le roman d’Ernest et Célestine[4]
-2013 : Pascal Ruter pour  Le cœur en braille[5]
+2016 : Christel Mouchard pour L'Apache aux yeux bleus
+2015 : Guillaume Prévost pour Force noire
+2014 : Daniel Pennac pour Le roman d’Ernest et Célestine
+2013 : Pascal Ruter pour  Le cœur en braille
 2012 : Michael Morpurgo pour Loin de la ville en flammes
 2011 : Florence Cadier pour Je ne t'oublierai jamais
 2010 : Christel Mouchard pour Le secret de la dame de jade
